--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -575,7 +575,7 @@
         <v>46038.62965277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45795</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44307.58013888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44886.4831712963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44550</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1250,14 +1250,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 50239-2022</t>
+          <t>A 59231-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44865</v>
+        <v>45637.58472222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>13.2</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1307,14 +1307,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 24212-2023</t>
+          <t>A 28416-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45076</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.8</v>
+        <v>0.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1364,14 +1364,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 17492-2024</t>
+          <t>A 270-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45415.50709490741</v>
+        <v>45660.48087962963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>7.7</v>
+        <v>8.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1421,14 +1421,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 57001-2025</t>
+          <t>A 49633-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45977</v>
+        <v>45596.59559027778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>45327.45375</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1535,14 +1535,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 28409-2024</t>
+          <t>A 24086-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45477.62280092593</v>
+        <v>45795</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 46587-2024</t>
+          <t>A 24212-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45582.76763888889</v>
+        <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1649,14 +1649,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 46588-2024</t>
+          <t>A 50239-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45582.77137731481</v>
+        <v>44865</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>13.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1706,14 +1706,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 51434-2025</t>
+          <t>A 46579-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45949</v>
+        <v>45582.75018518518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1763,14 +1763,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 52888-2025</t>
+          <t>A 51434-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45957.56943287037</v>
+        <v>45949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1820,14 +1820,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 52965-2025</t>
+          <t>A 28409-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45956</v>
+        <v>45477.62280092593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1877,14 +1877,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 52960-2025</t>
+          <t>A 52965-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>45956</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1934,14 +1934,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 270-2025</t>
+          <t>A 52960-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45660.48087962963</v>
+        <v>45956</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>8.9</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1991,14 +1991,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 28418-2024</t>
+          <t>A 52888-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>45957.56943287037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2048,14 +2048,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 59231-2024</t>
+          <t>A 57001-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45637.58472222222</v>
+        <v>45977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>44592.62657407407</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2162,14 +2162,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 49634-2024</t>
+          <t>A 17492-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45596.59591435185</v>
+        <v>45415.50709490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>7.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2219,14 +2219,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 49633-2024</t>
+          <t>A 46587-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45596.59559027778</v>
+        <v>45582.76763888889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2276,14 +2276,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 46579-2024</t>
+          <t>A 46588-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45582.75018518518</v>
+        <v>45582.77137731481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2333,14 +2333,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 28416-2024</t>
+          <t>A 28418-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>45477.62978009259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2390,14 +2390,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 21421-2021</t>
+          <t>A 49634-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44316</v>
+        <v>45596.59591435185</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2447,14 +2447,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 17491-2024</t>
+          <t>A 21421-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45415.50266203703</v>
+        <v>44316</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6.2</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2504,14 +2504,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 23503-2025</t>
+          <t>A 17491-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45795</v>
+        <v>45415.50266203703</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>14.1</v>
+        <v>6.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>44867.56143518518</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2618,14 +2618,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 24086-2025</t>
+          <t>A 23503-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
         <v>45795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>14.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -575,7 +575,7 @@
         <v>46038.62965277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45795</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44307.58013888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44886.4831712963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44550</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>45637.58472222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45477.62978009259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>45660.48087962963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>45596.59559027778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45327.45375</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45795</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>44865</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45582.75018518518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45477.62280092593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>45956</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>45956</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45957.56943287037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44592.62657407407</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45415.50709490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>45582.76763888889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45582.77137731481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45477.62978009259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>45596.59591435185</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44316</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>45415.50266203703</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44867.56143518518</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>45795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -575,7 +575,7 @@
         <v>46038.62965277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45795</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44307.58013888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44886.4831712963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44550</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>45637.58472222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45477.62978009259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>45660.48087962963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>45596.59559027778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45327.45375</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45795</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>44865</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45582.75018518518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45477.62280092593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>45956</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>45956</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45957.56943287037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44592.62657407407</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45415.50709490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>45582.76763888889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45582.77137731481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45477.62978009259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>45596.59591435185</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44316</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>45415.50266203703</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44867.56143518518</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>45795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -575,7 +575,7 @@
         <v>46038.62965277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45795</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44307.58013888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44886.4831712963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44550</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1250,14 +1250,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 59231-2024</t>
+          <t>A 17492-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45637.58472222222</v>
+        <v>45415.50709490741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>7.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1307,14 +1307,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 28416-2024</t>
+          <t>A 28409-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>45477.62280092593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1364,14 +1364,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 270-2025</t>
+          <t>A 46587-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45660.48087962963</v>
+        <v>45582.76763888889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>8.9</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1421,14 +1421,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49633-2024</t>
+          <t>A 46588-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45596.59559027778</v>
+        <v>45582.77137731481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1478,14 +1478,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 4422-2024</t>
+          <t>A 270-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45327.45375</v>
+        <v>45660.48087962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.5</v>
+        <v>8.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1535,14 +1535,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 24086-2025</t>
+          <t>A 28418-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45795</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 24212-2023</t>
+          <t>A 50239-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45076</v>
+        <v>44865</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.8</v>
+        <v>13.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1649,14 +1649,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 50239-2022</t>
+          <t>A 24212-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44865</v>
+        <v>45076</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>13.2</v>
+        <v>5.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1706,14 +1706,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 46579-2024</t>
+          <t>A 51434-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45582.75018518518</v>
+        <v>45949</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1763,14 +1763,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 51434-2025</t>
+          <t>A 52888-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45949</v>
+        <v>45957.56943287037</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1820,14 +1820,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 28409-2024</t>
+          <t>A 52965-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45477.62280092593</v>
+        <v>45956</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1877,14 +1877,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 52965-2025</t>
+          <t>A 52960-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>45956</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1934,14 +1934,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 52960-2025</t>
+          <t>A 4422-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45956</v>
+        <v>45327.45375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1991,14 +1991,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 52888-2025</t>
+          <t>A 57001-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45957.56943287037</v>
+        <v>45977</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2048,14 +2048,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 57001-2025</t>
+          <t>A 59231-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45977</v>
+        <v>45637.58472222222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>44592.62657407407</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2162,14 +2162,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 17492-2024</t>
+          <t>A 49634-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45415.50709490741</v>
+        <v>45596.59591435185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>7.7</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2219,14 +2219,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 46587-2024</t>
+          <t>A 49633-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45582.76763888889</v>
+        <v>45596.59559027778</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2276,14 +2276,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 46588-2024</t>
+          <t>A 46579-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45582.77137731481</v>
+        <v>45582.75018518518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2333,14 +2333,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 28418-2024</t>
+          <t>A 28416-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>45477.62978009259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2390,14 +2390,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 49634-2024</t>
+          <t>A 21421-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45596.59591435185</v>
+        <v>44316</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2447,14 +2447,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 21421-2021</t>
+          <t>A 17491-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44316</v>
+        <v>45415.50266203703</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>6.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2504,14 +2504,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 17491-2024</t>
+          <t>A 23503-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45415.50266203703</v>
+        <v>45795</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6.2</v>
+        <v>14.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>44867.56143518518</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2618,14 +2618,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 23503-2025</t>
+          <t>A 24086-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
         <v>45795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>14.1</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 2980-2026</t>
+          <t>A 24087-2025</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>46038.62965277778</v>
+        <v>45795</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,17 +588,17 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.1</v>
+        <v>30.3</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -622,289 +622,289 @@
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
+          <t>Rödlånke</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 24087-2025 artfynd.xlsx", "A 24087-2025")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 24087-2025 karta.png", "A 24087-2025")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 24087-2025 FSC-klagomål.docx", "A 24087-2025")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 24087-2025 FSC-klagomål mail.docx", "A 24087-2025")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 24087-2025 tillsynsbegäran.docx", "A 24087-2025")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 24087-2025 tillsynsbegäran mail.docx", "A 24087-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 24088-2025</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45795</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SOTENÄS</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 24088-2025 artfynd.xlsx", "A 24088-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 24088-2025 karta.png", "A 24088-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 24088-2025 FSC-klagomål.docx", "A 24088-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 24088-2025 FSC-klagomål mail.docx", "A 24088-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 24088-2025 tillsynsbegäran.docx", "A 24088-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 24088-2025 tillsynsbegäran mail.docx", "A 24088-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 24036-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45795</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SOTENÄS</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Kopparödla</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 24036-2025 artfynd.xlsx", "A 24036-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 24036-2025 karta.png", "A 24036-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 24036-2025 FSC-klagomål.docx", "A 24036-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 24036-2025 FSC-klagomål mail.docx", "A 24036-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 24036-2025 tillsynsbegäran.docx", "A 24036-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 24036-2025 tillsynsbegäran mail.docx", "A 24036-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 2980-2026</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46038.62965277778</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SOTENÄS</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 2980-2026 artfynd.xlsx", "A 2980-2026")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 2980-2026 karta.png", "A 2980-2026")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 2980-2026 FSC-klagomål.docx", "A 2980-2026")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 2980-2026 FSC-klagomål mail.docx", "A 2980-2026")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 2980-2026 tillsynsbegäran.docx", "A 2980-2026")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 2980-2026 tillsynsbegäran mail.docx", "A 2980-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 24087-2025</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45795</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SOTENÄS</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Rödlånke</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 24087-2025 artfynd.xlsx", "A 24087-2025")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 24087-2025 karta.png", "A 24087-2025")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 24087-2025 FSC-klagomål.docx", "A 24087-2025")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 24087-2025 FSC-klagomål mail.docx", "A 24087-2025")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 24087-2025 tillsynsbegäran.docx", "A 24087-2025")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 24087-2025 tillsynsbegäran mail.docx", "A 24087-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 24088-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45795</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SOTENÄS</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 24088-2025 artfynd.xlsx", "A 24088-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 24088-2025 karta.png", "A 24088-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 24088-2025 FSC-klagomål.docx", "A 24088-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 24088-2025 FSC-klagomål mail.docx", "A 24088-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 24088-2025 tillsynsbegäran.docx", "A 24088-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 24088-2025 tillsynsbegäran mail.docx", "A 24088-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 24036-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45795</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SOTENÄS</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Kopparödla</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 24036-2025 artfynd.xlsx", "A 24036-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 24036-2025 karta.png", "A 24036-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 24036-2025 FSC-klagomål.docx", "A 24036-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 24036-2025 FSC-klagomål mail.docx", "A 24036-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 24036-2025 tillsynsbegäran.docx", "A 24036-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 24036-2025 tillsynsbegäran mail.docx", "A 24036-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44307.58013888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44886.4831712963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44550</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1250,14 +1250,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 17492-2024</t>
+          <t>A 59231-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45415.50709490741</v>
+        <v>45637.58472222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>7.7</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1307,14 +1307,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 28409-2024</t>
+          <t>A 28416-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45477.62280092593</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1364,14 +1364,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 46587-2024</t>
+          <t>A 21421-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45582.76763888889</v>
+        <v>44316</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1421,14 +1421,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 46588-2024</t>
+          <t>A 270-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45582.77137731481</v>
+        <v>45660.48087962963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>8.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1478,14 +1478,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 270-2025</t>
+          <t>A 49633-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45660.48087962963</v>
+        <v>45596.59559027778</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8.9</v>
+        <v>0.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1535,14 +1535,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 28418-2024</t>
+          <t>A 17491-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>45415.50266203703</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.2</v>
+        <v>6.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 50239-2022</t>
+          <t>A 50864-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44865</v>
+        <v>44867.56143518518</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>13.2</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1649,14 +1649,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 24212-2023</t>
+          <t>A 23503-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45076</v>
+        <v>45795</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.8</v>
+        <v>14.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1706,14 +1706,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 51434-2025</t>
+          <t>A 4422-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45949</v>
+        <v>45327.45375</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1763,14 +1763,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 52888-2025</t>
+          <t>A 24086-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45957.56943287037</v>
+        <v>45795</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1820,14 +1820,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 52965-2025</t>
+          <t>A 24212-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45956</v>
+        <v>45076</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>5.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1877,14 +1877,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 52960-2025</t>
+          <t>A 50239-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45956</v>
+        <v>44865</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>13.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1934,14 +1934,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 4422-2024</t>
+          <t>A 46579-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45327.45375</v>
+        <v>45582.75018518518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1991,14 +1991,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 57001-2025</t>
+          <t>A 28409-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45977</v>
+        <v>45477.62280092593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2048,14 +2048,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 59231-2024</t>
+          <t>A 51434-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45637.58472222222</v>
+        <v>45949</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2105,14 +2105,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 4780-2022</t>
+          <t>A 52965-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44592.62657407407</v>
+        <v>45956</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2162,14 +2162,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 49634-2024</t>
+          <t>A 52960-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45596.59591435185</v>
+        <v>45956</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2219,14 +2219,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 49633-2024</t>
+          <t>A 52888-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45596.59559027778</v>
+        <v>45957.56943287037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2276,14 +2276,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 46579-2024</t>
+          <t>A 57001-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45582.75018518518</v>
+        <v>45977</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2333,14 +2333,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 28416-2024</t>
+          <t>A 4780-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>44592.62657407407</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2390,14 +2390,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 21421-2021</t>
+          <t>A 17492-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44316</v>
+        <v>45415.50709490741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.6</v>
+        <v>7.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2447,14 +2447,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 17491-2024</t>
+          <t>A 46587-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45415.50266203703</v>
+        <v>45582.76763888889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2504,14 +2504,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 23503-2025</t>
+          <t>A 46588-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45795</v>
+        <v>45582.77137731481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>14.1</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2561,14 +2561,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 50864-2022</t>
+          <t>A 28418-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44867.56143518518</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2618,14 +2618,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 24086-2025</t>
+          <t>A 49634-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45795</v>
+        <v>45596.59591435185</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -575,7 +575,7 @@
         <v>45795</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>46038.62965277778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44307.58013888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44886.4831712963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1136,14 +1136,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 21487-2021</t>
+          <t>A 73020-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44320</v>
+        <v>44550</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1193,14 +1193,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 73020-2021</t>
+          <t>A 21487-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44550</v>
+        <v>44320</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1250,14 +1250,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 59231-2024</t>
+          <t>A 24212-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45637.58472222222</v>
+        <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1307,14 +1307,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 28416-2024</t>
+          <t>A 28409-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>45477.62280092593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1364,14 +1364,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 21421-2021</t>
+          <t>A 4422-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44316</v>
+        <v>45327.45375</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1421,14 +1421,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 270-2025</t>
+          <t>A 17492-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45660.48087962963</v>
+        <v>45415.50709490741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>8.9</v>
+        <v>7.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1478,14 +1478,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 49633-2024</t>
+          <t>A 46587-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45596.59559027778</v>
+        <v>45582.76763888889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1535,14 +1535,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 17491-2024</t>
+          <t>A 46588-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45415.50266203703</v>
+        <v>45582.77137731481</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6.2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 50864-2022</t>
+          <t>A 24086-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44867.56143518518</v>
+        <v>45795</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1649,14 +1649,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 23503-2025</t>
+          <t>A 49634-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45795</v>
+        <v>45596.59591435185</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>14.1</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1706,14 +1706,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 4422-2024</t>
+          <t>A 270-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45327.45375</v>
+        <v>45660.48087962963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.5</v>
+        <v>8.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1763,14 +1763,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 24086-2025</t>
+          <t>A 28418-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45795</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1820,14 +1820,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 24212-2023</t>
+          <t>A 50239-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45076</v>
+        <v>44865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.8</v>
+        <v>13.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1877,14 +1877,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 50239-2022</t>
+          <t>A 59231-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44865</v>
+        <v>45637.58472222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>13.2</v>
+        <v>1.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1934,14 +1934,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 46579-2024</t>
+          <t>A 4780-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45582.75018518518</v>
+        <v>44592.62657407407</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1991,14 +1991,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 28409-2024</t>
+          <t>A 49633-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45477.62280092593</v>
+        <v>45596.59559027778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2048,14 +2048,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 51434-2025</t>
+          <t>A 46579-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45949</v>
+        <v>45582.75018518518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2105,14 +2105,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 52965-2025</t>
+          <t>A 28416-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45956</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2162,14 +2162,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 52960-2025</t>
+          <t>A 21421-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45956</v>
+        <v>44316</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2219,14 +2219,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 52888-2025</t>
+          <t>A 51434-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45957.56943287037</v>
+        <v>45949</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2276,14 +2276,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 57001-2025</t>
+          <t>A 17491-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45977</v>
+        <v>45415.50266203703</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>6.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2333,14 +2333,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 4780-2022</t>
+          <t>A 23503-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44592.62657407407</v>
+        <v>45795</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>14.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2390,14 +2390,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 17492-2024</t>
+          <t>A 52888-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45415.50709490741</v>
+        <v>45957.56943287037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>7.7</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2447,14 +2447,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 46587-2024</t>
+          <t>A 52965-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45582.76763888889</v>
+        <v>45956</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2504,14 +2504,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 46588-2024</t>
+          <t>A 52960-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45582.77137731481</v>
+        <v>45956</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2561,14 +2561,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 28418-2024</t>
+          <t>A 50864-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>44867.56143518518</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2618,14 +2618,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 49634-2024</t>
+          <t>A 57001-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45596.59591435185</v>
+        <v>45977</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -575,7 +575,7 @@
         <v>45795</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>46038.62965277778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44307.58013888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44886.4831712963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1136,14 +1136,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 73020-2021</t>
+          <t>A 21487-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44550</v>
+        <v>44320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1193,14 +1193,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 21487-2021</t>
+          <t>A 73020-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44320</v>
+        <v>44550</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1250,14 +1250,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 24212-2023</t>
+          <t>A 59231-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45076</v>
+        <v>45637.58472222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1307,14 +1307,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 28409-2024</t>
+          <t>A 28416-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45477.62280092593</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1364,14 +1364,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 4422-2024</t>
+          <t>A 17491-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45327.45375</v>
+        <v>45415.50266203703</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1421,14 +1421,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 17492-2024</t>
+          <t>A 50864-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45415.50709490741</v>
+        <v>44867.56143518518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>7.7</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1478,14 +1478,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 46587-2024</t>
+          <t>A 23503-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45582.76763888889</v>
+        <v>45795</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>14.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1535,14 +1535,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 46588-2024</t>
+          <t>A 270-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45582.77137731481</v>
+        <v>45660.48087962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>8.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 24086-2025</t>
+          <t>A 49633-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45795</v>
+        <v>45596.59559027778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1649,14 +1649,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 49634-2024</t>
+          <t>A 24086-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45596.59591435185</v>
+        <v>45795</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1706,14 +1706,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 270-2025</t>
+          <t>A 4422-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45660.48087962963</v>
+        <v>45327.45375</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>8.9</v>
+        <v>4.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1763,14 +1763,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 28418-2024</t>
+          <t>A 24212-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>45076</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.2</v>
+        <v>5.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>44865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1877,14 +1877,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 59231-2024</t>
+          <t>A 46579-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45637.58472222222</v>
+        <v>45582.75018518518</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1934,14 +1934,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 4780-2022</t>
+          <t>A 28409-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44592.62657407407</v>
+        <v>45477.62280092593</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1991,14 +1991,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 49633-2024</t>
+          <t>A 51434-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45596.59559027778</v>
+        <v>45949</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2048,14 +2048,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 46579-2024</t>
+          <t>A 52965-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45582.75018518518</v>
+        <v>45956</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2105,14 +2105,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 28416-2024</t>
+          <t>A 52960-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>45956</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2162,14 +2162,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 21421-2021</t>
+          <t>A 52888-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44316</v>
+        <v>45957.56943287037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2219,14 +2219,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 51434-2025</t>
+          <t>A 4780-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45949</v>
+        <v>44592.62657407407</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2276,14 +2276,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 17491-2024</t>
+          <t>A 57001-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45415.50266203703</v>
+        <v>45977</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2333,14 +2333,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 23503-2025</t>
+          <t>A 17492-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45795</v>
+        <v>45415.50709490741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>14.1</v>
+        <v>7.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2390,14 +2390,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 52888-2025</t>
+          <t>A 46587-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45957.56943287037</v>
+        <v>45582.76763888889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2447,14 +2447,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 52965-2025</t>
+          <t>A 46588-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45956</v>
+        <v>45582.77137731481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2504,14 +2504,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 52960-2025</t>
+          <t>A 28418-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45956</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2561,14 +2561,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 50864-2022</t>
+          <t>A 49634-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44867.56143518518</v>
+        <v>45596.59591435185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2618,14 +2618,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 57001-2025</t>
+          <t>A 21421-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45977</v>
+        <v>44316</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -575,7 +575,7 @@
         <v>45795</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>46038.62965277778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44307.58013888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44886.4831712963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44550</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>45637.58472222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45477.62978009259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1364,14 +1364,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 17491-2024</t>
+          <t>A 21421-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45415.50266203703</v>
+        <v>44316</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.2</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1421,14 +1421,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 50864-2022</t>
+          <t>A 17491-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44867.56143518518</v>
+        <v>45415.50266203703</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1478,14 +1478,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 23503-2025</t>
+          <t>A 50864-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45795</v>
+        <v>44867.56143518518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>14.1</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1535,14 +1535,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 270-2025</t>
+          <t>A 23503-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45660.48087962963</v>
+        <v>45795</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>8.9</v>
+        <v>14.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 49633-2024</t>
+          <t>A 270-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45596.59559027778</v>
+        <v>45660.48087962963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.8</v>
+        <v>8.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1649,14 +1649,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 24086-2025</t>
+          <t>A 49633-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45795</v>
+        <v>45596.59559027778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1706,14 +1706,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 4422-2024</t>
+          <t>A 24086-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45327.45375</v>
+        <v>45795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1763,14 +1763,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 24212-2023</t>
+          <t>A 4422-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45076</v>
+        <v>45327.45375</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1820,14 +1820,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 50239-2022</t>
+          <t>A 24212-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44865</v>
+        <v>45076</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>13.2</v>
+        <v>5.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1877,14 +1877,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 46579-2024</t>
+          <t>A 51434-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45582.75018518518</v>
+        <v>45949</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1934,14 +1934,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 28409-2024</t>
+          <t>A 50239-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45477.62280092593</v>
+        <v>44865</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.4</v>
+        <v>13.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1991,14 +1991,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 51434-2025</t>
+          <t>A 52965-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45949</v>
+        <v>45956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2048,14 +2048,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 52965-2025</t>
+          <t>A 46579-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45956</v>
+        <v>45582.75018518518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>45956</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45957.56943287037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2219,14 +2219,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 4780-2022</t>
+          <t>A 28409-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44592.62657407407</v>
+        <v>45477.62280092593</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>45977</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2333,14 +2333,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 17492-2024</t>
+          <t>A 4780-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45415.50709490741</v>
+        <v>44592.62657407407</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2390,14 +2390,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 46587-2024</t>
+          <t>A 17492-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45582.76763888889</v>
+        <v>45415.50709490741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.8</v>
+        <v>7.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2447,14 +2447,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 46588-2024</t>
+          <t>A 46587-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45582.77137731481</v>
+        <v>45582.76763888889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2504,14 +2504,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 28418-2024</t>
+          <t>A 46588-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>45582.77137731481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2561,14 +2561,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 49634-2024</t>
+          <t>A 28418-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45596.59591435185</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2618,14 +2618,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 21421-2021</t>
+          <t>A 49634-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44316</v>
+        <v>45596.59591435185</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -575,7 +575,7 @@
         <v>45795</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>46038.62965277778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44307.58013888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44886.4831712963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44550</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>45637.58472222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1307,14 +1307,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 28416-2024</t>
+          <t>A 21421-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>44316</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1364,14 +1364,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 21421-2021</t>
+          <t>A 28416-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44316</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>45415.50266203703</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>44867.56143518518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45795</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1592,14 +1592,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 270-2025</t>
+          <t>A 57001-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45660.48087962963</v>
+        <v>45977</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>8.9</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1649,14 +1649,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 49633-2024</t>
+          <t>A 270-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45596.59559027778</v>
+        <v>45660.48087962963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>8.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1706,14 +1706,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 24086-2025</t>
+          <t>A 49633-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45795</v>
+        <v>45596.59559027778</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1763,14 +1763,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 4422-2024</t>
+          <t>A 24086-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45327.45375</v>
+        <v>45795</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1820,14 +1820,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 24212-2023</t>
+          <t>A 4422-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45076</v>
+        <v>45327.45375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1877,14 +1877,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 51434-2025</t>
+          <t>A 24212-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45949</v>
+        <v>45076</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1934,14 +1934,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 50239-2022</t>
+          <t>A 51434-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44865</v>
+        <v>45949</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>13.2</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1998,7 +1998,7 @@
         <v>45956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2048,14 +2048,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 46579-2024</t>
+          <t>A 52960-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45582.75018518518</v>
+        <v>45956</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2105,14 +2105,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 52960-2025</t>
+          <t>A 52888-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45956</v>
+        <v>45957.56943287037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2162,14 +2162,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 52888-2025</t>
+          <t>A 50239-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45957.56943287037</v>
+        <v>44865</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>13.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2219,14 +2219,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 28409-2024</t>
+          <t>A 46579-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45477.62280092593</v>
+        <v>45582.75018518518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2276,14 +2276,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 57001-2025</t>
+          <t>A 28409-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45977</v>
+        <v>45477.62280092593</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>44592.62657407407</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>45415.50709490741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>45582.76763888889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>45582.77137731481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>45477.62978009259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>45596.59591435185</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -575,7 +575,7 @@
         <v>45795</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>46038.62965277778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44307.58013888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44886.4831712963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44550</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1250,14 +1250,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 59231-2024</t>
+          <t>A 28416-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45637.58472222222</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1307,14 +1307,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 21421-2021</t>
+          <t>A 17492-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44316</v>
+        <v>45415.50709490741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.6</v>
+        <v>7.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1364,14 +1364,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 28416-2024</t>
+          <t>A 21421-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>44316</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>45415.50266203703</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1478,14 +1478,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 50864-2022</t>
+          <t>A 23503-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44867.56143518518</v>
+        <v>45795</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>14.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1535,14 +1535,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 23503-2025</t>
+          <t>A 51434-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45795</v>
+        <v>45949</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>14.1</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 57001-2025</t>
+          <t>A 50864-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45977</v>
+        <v>44867.56143518518</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1649,14 +1649,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 270-2025</t>
+          <t>A 28409-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45660.48087962963</v>
+        <v>45477.62280092593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>8.9</v>
+        <v>0.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1706,14 +1706,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 49633-2024</t>
+          <t>A 52888-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45596.59559027778</v>
+        <v>45957.56943287037</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1763,14 +1763,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 24086-2025</t>
+          <t>A 52965-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45795</v>
+        <v>45956</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1820,14 +1820,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 4422-2024</t>
+          <t>A 52960-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45327.45375</v>
+        <v>45956</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1877,14 +1877,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 24212-2023</t>
+          <t>A 24086-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45076</v>
+        <v>45795</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1934,14 +1934,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 51434-2025</t>
+          <t>A 57001-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45949</v>
+        <v>45977</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1991,14 +1991,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 52965-2025</t>
+          <t>A 46587-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45956</v>
+        <v>45582.76763888889</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2048,14 +2048,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 52960-2025</t>
+          <t>A 46588-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45956</v>
+        <v>45582.77137731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2105,14 +2105,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 52888-2025</t>
+          <t>A 270-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45957.56943287037</v>
+        <v>45660.48087962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>8.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2162,14 +2162,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 50239-2022</t>
+          <t>A 28418-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44865</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>13.2</v>
+        <v>0.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2219,14 +2219,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 46579-2024</t>
+          <t>A 50239-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45582.75018518518</v>
+        <v>44865</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>13.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2276,14 +2276,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 28409-2024</t>
+          <t>A 24212-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45477.62280092593</v>
+        <v>45076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.4</v>
+        <v>5.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2333,14 +2333,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 4780-2022</t>
+          <t>A 4422-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44592.62657407407</v>
+        <v>45327.45375</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2390,14 +2390,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 17492-2024</t>
+          <t>A 59231-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45415.50709490741</v>
+        <v>45637.58472222222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>7.7</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2447,14 +2447,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 46587-2024</t>
+          <t>A 4780-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45582.76763888889</v>
+        <v>44592.62657407407</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2504,14 +2504,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 46588-2024</t>
+          <t>A 49634-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45582.77137731481</v>
+        <v>45596.59591435185</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2561,14 +2561,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 28418-2024</t>
+          <t>A 49633-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>45596.59559027778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2618,14 +2618,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 49634-2024</t>
+          <t>A 46579-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45596.59591435185</v>
+        <v>45582.75018518518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 24087-2025</t>
+          <t>A 2980-2026</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45795</v>
+        <v>46038.62965277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>30.3</v>
+        <v>1.1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -622,289 +622,289 @@
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 2980-2026 artfynd.xlsx", "A 2980-2026")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 2980-2026 karta.png", "A 2980-2026")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 2980-2026 FSC-klagomål.docx", "A 2980-2026")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 2980-2026 FSC-klagomål mail.docx", "A 2980-2026")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 2980-2026 tillsynsbegäran.docx", "A 2980-2026")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 2980-2026 tillsynsbegäran mail.docx", "A 2980-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 24087-2025</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45795</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SOTENÄS</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
           <t>Rödlånke</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 24087-2025 artfynd.xlsx", "A 24087-2025")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 24087-2025 karta.png", "A 24087-2025")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 24087-2025 FSC-klagomål.docx", "A 24087-2025")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 24087-2025 FSC-klagomål mail.docx", "A 24087-2025")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 24087-2025 tillsynsbegäran.docx", "A 24087-2025")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 24087-2025 tillsynsbegäran mail.docx", "A 24087-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>A 24088-2025</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="1" t="n">
         <v>45795</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SOTENÄS</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="C4" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SOTENÄS</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>2.8</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 24088-2025 artfynd.xlsx", "A 24088-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 24088-2025 karta.png", "A 24088-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 24088-2025 FSC-klagomål.docx", "A 24088-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 24088-2025 FSC-klagomål mail.docx", "A 24088-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 24088-2025 tillsynsbegäran.docx", "A 24088-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 24088-2025 tillsynsbegäran mail.docx", "A 24088-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 24036-2025</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>45795</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SOTENÄS</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SOTENÄS</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>37.1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Kopparödla</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 24036-2025 artfynd.xlsx", "A 24036-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 24036-2025 karta.png", "A 24036-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 24036-2025 FSC-klagomål.docx", "A 24036-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 24036-2025 FSC-klagomål mail.docx", "A 24036-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 24036-2025 tillsynsbegäran.docx", "A 24036-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 24036-2025 tillsynsbegäran mail.docx", "A 24036-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 2980-2026</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>46038.62965277778</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SOTENÄS</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 2980-2026 artfynd.xlsx", "A 2980-2026")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 2980-2026 karta.png", "A 2980-2026")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 2980-2026 FSC-klagomål.docx", "A 2980-2026")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 2980-2026 FSC-klagomål mail.docx", "A 2980-2026")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 2980-2026 tillsynsbegäran.docx", "A 2980-2026")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 2980-2026 tillsynsbegäran mail.docx", "A 2980-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44307.58013888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44886.4831712963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44550</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1250,14 +1250,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 28416-2024</t>
+          <t>A 59231-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>45637.58472222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1307,14 +1307,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 17492-2024</t>
+          <t>A 270-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45415.50709490741</v>
+        <v>45660.48087962963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7.7</v>
+        <v>8.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1364,14 +1364,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 21421-2021</t>
+          <t>A 49633-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44316</v>
+        <v>45596.59559027778</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1421,14 +1421,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 17491-2024</t>
+          <t>A 28416-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45415.50266203703</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>6.2</v>
+        <v>0.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1478,14 +1478,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 23503-2025</t>
+          <t>A 4422-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45795</v>
+        <v>45327.45375</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>14.1</v>
+        <v>4.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1535,14 +1535,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 51434-2025</t>
+          <t>A 24212-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45949</v>
+        <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 50864-2022</t>
+          <t>A 50239-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44867.56143518518</v>
+        <v>44865</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>13.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1649,14 +1649,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 28409-2024</t>
+          <t>A 46579-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45477.62280092593</v>
+        <v>45582.75018518518</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1706,14 +1706,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 52888-2025</t>
+          <t>A 28409-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45957.56943287037</v>
+        <v>45477.62280092593</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1763,14 +1763,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 52965-2025</t>
+          <t>A 51434-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45956</v>
+        <v>45949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1820,14 +1820,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 52960-2025</t>
+          <t>A 52965-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>45956</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1877,14 +1877,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 24086-2025</t>
+          <t>A 52960-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45795</v>
+        <v>45956</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1934,14 +1934,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 57001-2025</t>
+          <t>A 52888-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45977</v>
+        <v>45957.56943287037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1991,14 +1991,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 46587-2024</t>
+          <t>A 57001-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45582.76763888889</v>
+        <v>45977</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2048,14 +2048,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 46588-2024</t>
+          <t>A 4780-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45582.77137731481</v>
+        <v>44592.62657407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2105,14 +2105,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 270-2025</t>
+          <t>A 17492-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45660.48087962963</v>
+        <v>45415.50709490741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.9</v>
+        <v>7.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2162,14 +2162,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 28418-2024</t>
+          <t>A 46587-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>45582.76763888889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2219,14 +2219,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 50239-2022</t>
+          <t>A 46588-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44865</v>
+        <v>45582.77137731481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>13.2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2276,14 +2276,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 24212-2023</t>
+          <t>A 28418-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45076</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.8</v>
+        <v>0.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2333,14 +2333,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 4422-2024</t>
+          <t>A 49634-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45327.45375</v>
+        <v>45596.59591435185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2390,14 +2390,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 59231-2024</t>
+          <t>A 21421-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45637.58472222222</v>
+        <v>44316</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2447,14 +2447,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 4780-2022</t>
+          <t>A 17491-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44592.62657407407</v>
+        <v>45415.50266203703</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.9</v>
+        <v>6.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2504,14 +2504,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 49634-2024</t>
+          <t>A 50864-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45596.59591435185</v>
+        <v>44867.56143518518</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2561,14 +2561,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 49633-2024</t>
+          <t>A 23503-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45596.59559027778</v>
+        <v>45795</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>14.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2618,14 +2618,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 46579-2024</t>
+          <t>A 24086-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45582.75018518518</v>
+        <v>45795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -575,7 +575,7 @@
         <v>46038.62965277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45795</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44307.58013888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44886.4831712963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44550</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>45637.58472222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45660.48087962963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>45596.59559027778</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>45477.62978009259</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45327.45375</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>44865</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>45582.75018518518</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45477.62280092593</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45956</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>45956</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>45957.56943287037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45977</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>44592.62657407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45415.50709490741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45582.76763888889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>45582.77137731481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45477.62978009259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45596.59591435185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44316</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>45415.50266203703</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44867.56143518518</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>45795</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>45795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -575,7 +575,7 @@
         <v>46038.62965277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45795</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44307.58013888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44886.4831712963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44550</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>45637.58472222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45660.48087962963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>45596.59559027778</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>45477.62978009259</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45327.45375</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>44865</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>45582.75018518518</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45477.62280092593</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45956</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>45956</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>45957.56943287037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45977</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>44592.62657407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45415.50709490741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>45582.76763888889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>45582.77137731481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45477.62978009259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45596.59591435185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44316</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>45415.50266203703</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44867.56143518518</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>45795</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>45795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -575,7 +575,7 @@
         <v>46038.62965277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45795</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44307.58013888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -965,14 +965,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 54967-2022</t>
+          <t>A 43053-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44886.4831712963</v>
+        <v>44431</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1022,14 +1022,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 43053-2021</t>
+          <t>A 43056-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1079,14 +1079,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 43056-2021</t>
+          <t>A 54967-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44431</v>
+        <v>44886.4831712963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         <v>44320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44550</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1250,14 +1250,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 59231-2024</t>
+          <t>A 17492-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45637.58472222222</v>
+        <v>45415.50709490741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>7.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1307,14 +1307,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 270-2025</t>
+          <t>A 46587-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45660.48087962963</v>
+        <v>45582.76763888889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>8.9</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1364,14 +1364,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 49633-2024</t>
+          <t>A 46588-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45596.59559027778</v>
+        <v>45582.77137731481</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1421,14 +1421,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 28416-2024</t>
+          <t>A 270-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>45660.48087962963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.2</v>
+        <v>8.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1478,14 +1478,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 4422-2024</t>
+          <t>A 50239-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45327.45375</v>
+        <v>44865</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.5</v>
+        <v>13.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1535,14 +1535,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 24212-2023</t>
+          <t>A 28418-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45076</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.8</v>
+        <v>0.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 50239-2022</t>
+          <t>A 24212-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44865</v>
+        <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>13.2</v>
+        <v>5.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1649,14 +1649,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 46579-2024</t>
+          <t>A 4422-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45582.75018518518</v>
+        <v>45327.45375</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>45477.62280092593</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1763,14 +1763,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 51434-2025</t>
+          <t>A 59231-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45949</v>
+        <v>45637.58472222222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1820,14 +1820,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 52965-2025</t>
+          <t>A 4780-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45956</v>
+        <v>44592.62657407407</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1877,14 +1877,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 52960-2025</t>
+          <t>A 49634-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45956</v>
+        <v>45596.59591435185</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1934,14 +1934,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 52888-2025</t>
+          <t>A 51434-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45957.56943287037</v>
+        <v>45949</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1991,14 +1991,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 57001-2025</t>
+          <t>A 52888-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45977</v>
+        <v>45957.56943287037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2048,14 +2048,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 4780-2022</t>
+          <t>A 52965-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44592.62657407407</v>
+        <v>45956</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2105,14 +2105,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 17492-2024</t>
+          <t>A 52960-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45415.50709490741</v>
+        <v>45956</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>7.7</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2162,14 +2162,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 46587-2024</t>
+          <t>A 49633-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45582.76763888889</v>
+        <v>45596.59559027778</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2219,14 +2219,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 46588-2024</t>
+          <t>A 46579-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45582.77137731481</v>
+        <v>45582.75018518518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2276,14 +2276,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 28418-2024</t>
+          <t>A 57001-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>45977</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2333,14 +2333,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 49634-2024</t>
+          <t>A 28416-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45596.59591435185</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>44316</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>45415.50266203703</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2504,14 +2504,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 50864-2022</t>
+          <t>A 23503-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44867.56143518518</v>
+        <v>45795</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.3</v>
+        <v>14.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2561,14 +2561,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 23503-2025</t>
+          <t>A 50864-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45795</v>
+        <v>44867.56143518518</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>14.1</v>
+        <v>3.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2625,7 +2625,7 @@
         <v>45795</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 2980-2026</t>
+          <t>A 24087-2025</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>46038.62965277778</v>
+        <v>45795</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,17 +588,17 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.1</v>
+        <v>30.3</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -622,289 +622,289 @@
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
+          <t>Rödlånke</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 24087-2025 artfynd.xlsx", "A 24087-2025")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 24087-2025 karta.png", "A 24087-2025")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 24087-2025 FSC-klagomål.docx", "A 24087-2025")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 24087-2025 FSC-klagomål mail.docx", "A 24087-2025")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 24087-2025 tillsynsbegäran.docx", "A 24087-2025")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 24087-2025 tillsynsbegäran mail.docx", "A 24087-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 24088-2025</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45795</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SOTENÄS</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 24088-2025 artfynd.xlsx", "A 24088-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 24088-2025 karta.png", "A 24088-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 24088-2025 FSC-klagomål.docx", "A 24088-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 24088-2025 FSC-klagomål mail.docx", "A 24088-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 24088-2025 tillsynsbegäran.docx", "A 24088-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 24088-2025 tillsynsbegäran mail.docx", "A 24088-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 24036-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45795</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SOTENÄS</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Kopparödla</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 24036-2025 artfynd.xlsx", "A 24036-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 24036-2025 karta.png", "A 24036-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 24036-2025 FSC-klagomål.docx", "A 24036-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 24036-2025 FSC-klagomål mail.docx", "A 24036-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 24036-2025 tillsynsbegäran.docx", "A 24036-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 24036-2025 tillsynsbegäran mail.docx", "A 24036-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 2980-2026</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46038.62965277778</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SOTENÄS</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 2980-2026 artfynd.xlsx", "A 2980-2026")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 2980-2026 karta.png", "A 2980-2026")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 2980-2026 FSC-klagomål.docx", "A 2980-2026")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 2980-2026 FSC-klagomål mail.docx", "A 2980-2026")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 2980-2026 tillsynsbegäran.docx", "A 2980-2026")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 2980-2026 tillsynsbegäran mail.docx", "A 2980-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 24087-2025</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45795</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SOTENÄS</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Rödlånke</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 24087-2025 artfynd.xlsx", "A 24087-2025")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 24087-2025 karta.png", "A 24087-2025")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 24087-2025 FSC-klagomål.docx", "A 24087-2025")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 24087-2025 FSC-klagomål mail.docx", "A 24087-2025")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 24087-2025 tillsynsbegäran.docx", "A 24087-2025")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 24087-2025 tillsynsbegäran mail.docx", "A 24087-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 24088-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45795</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SOTENÄS</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 24088-2025 artfynd.xlsx", "A 24088-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 24088-2025 karta.png", "A 24088-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 24088-2025 FSC-klagomål.docx", "A 24088-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 24088-2025 FSC-klagomål mail.docx", "A 24088-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 24088-2025 tillsynsbegäran.docx", "A 24088-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 24088-2025 tillsynsbegäran mail.docx", "A 24088-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 24036-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45795</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SOTENÄS</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Kopparödla</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 24036-2025 artfynd.xlsx", "A 24036-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 24036-2025 karta.png", "A 24036-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 24036-2025 FSC-klagomål.docx", "A 24036-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 24036-2025 FSC-klagomål mail.docx", "A 24036-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 24036-2025 tillsynsbegäran.docx", "A 24036-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 24036-2025 tillsynsbegäran mail.docx", "A 24036-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44307.58013888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -965,14 +965,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 43053-2021</t>
+          <t>A 54967-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44431</v>
+        <v>44886.4831712963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1022,14 +1022,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 43056-2021</t>
+          <t>A 43053-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1079,14 +1079,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 54967-2022</t>
+          <t>A 43056-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44886.4831712963</v>
+        <v>44431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         <v>44320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44550</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1250,14 +1250,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 17492-2024</t>
+          <t>A 59231-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45415.50709490741</v>
+        <v>45637.58472222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>7.7</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1307,14 +1307,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 46587-2024</t>
+          <t>A 28416-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45582.76763888889</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1364,14 +1364,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 46588-2024</t>
+          <t>A 21421-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45582.77137731481</v>
+        <v>44316</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1421,14 +1421,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 270-2025</t>
+          <t>A 17491-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45660.48087962963</v>
+        <v>45415.50266203703</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>8.9</v>
+        <v>6.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1478,14 +1478,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 50239-2022</t>
+          <t>A 50864-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44865</v>
+        <v>44867.56143518518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>13.2</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1535,14 +1535,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 28418-2024</t>
+          <t>A 23503-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>45795</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.2</v>
+        <v>14.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 24212-2023</t>
+          <t>A 270-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45076</v>
+        <v>45660.48087962963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.8</v>
+        <v>8.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1649,14 +1649,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 4422-2024</t>
+          <t>A 49633-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45327.45375</v>
+        <v>45596.59559027778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1706,14 +1706,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 28409-2024</t>
+          <t>A 24086-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45477.62280092593</v>
+        <v>45795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1763,14 +1763,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 59231-2024</t>
+          <t>A 4422-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45637.58472222222</v>
+        <v>45327.45375</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1820,14 +1820,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 4780-2022</t>
+          <t>A 24212-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44592.62657407407</v>
+        <v>45076</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9</v>
+        <v>5.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1877,14 +1877,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 49634-2024</t>
+          <t>A 51434-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45596.59591435185</v>
+        <v>45949</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1934,14 +1934,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 51434-2025</t>
+          <t>A 50239-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45949</v>
+        <v>44865</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.8</v>
+        <v>13.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1991,14 +1991,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 52888-2025</t>
+          <t>A 46579-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45957.56943287037</v>
+        <v>45582.75018518518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>45956</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45956</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2162,14 +2162,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 49633-2024</t>
+          <t>A 52888-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45596.59559027778</v>
+        <v>45957.56943287037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2219,14 +2219,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 46579-2024</t>
+          <t>A 28409-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45582.75018518518</v>
+        <v>45477.62280092593</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>45977</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2333,14 +2333,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 28416-2024</t>
+          <t>A 4780-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>44592.62657407407</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2390,14 +2390,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 21421-2021</t>
+          <t>A 17492-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44316</v>
+        <v>45415.50709490741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.6</v>
+        <v>7.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2447,14 +2447,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 17491-2024</t>
+          <t>A 46587-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45415.50266203703</v>
+        <v>45582.76763888889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2504,14 +2504,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 23503-2025</t>
+          <t>A 46588-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45795</v>
+        <v>45582.77137731481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>14.1</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2561,14 +2561,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 50864-2022</t>
+          <t>A 28418-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44867.56143518518</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2618,14 +2618,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 24086-2025</t>
+          <t>A 49634-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45795</v>
+        <v>45596.59591435185</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -575,7 +575,7 @@
         <v>45795</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>46038.62965277778</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44307.58013888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44886.4831712963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44550</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1250,14 +1250,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 59231-2024</t>
+          <t>A 46587-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45637.58472222222</v>
+        <v>45582.76763888889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1307,14 +1307,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 28416-2024</t>
+          <t>A 46588-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>45582.77137731481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1364,14 +1364,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 21421-2021</t>
+          <t>A 17492-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44316</v>
+        <v>45415.50709490741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>7.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1421,14 +1421,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 17491-2024</t>
+          <t>A 28409-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45415.50266203703</v>
+        <v>45477.62280092593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>6.2</v>
+        <v>0.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1478,14 +1478,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 50864-2022</t>
+          <t>A 270-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44867.56143518518</v>
+        <v>45660.48087962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>8.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1535,14 +1535,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 23503-2025</t>
+          <t>A 28418-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45795</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>14.1</v>
+        <v>0.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 270-2025</t>
+          <t>A 49633-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45660.48087962963</v>
+        <v>45596.59559027778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>8.9</v>
+        <v>0.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1649,14 +1649,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 49633-2024</t>
+          <t>A 46579-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45596.59559027778</v>
+        <v>45582.75018518518</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1706,14 +1706,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 24086-2025</t>
+          <t>A 50239-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45795</v>
+        <v>44865</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>13.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1763,14 +1763,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 4422-2024</t>
+          <t>A 28416-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45327.45375</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.5</v>
+        <v>0.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>45076</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1877,14 +1877,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 51434-2025</t>
+          <t>A 4422-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45949</v>
+        <v>45327.45375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1934,14 +1934,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 50239-2022</t>
+          <t>A 21421-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44865</v>
+        <v>44316</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>13.2</v>
+        <v>0.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1991,14 +1991,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 46579-2024</t>
+          <t>A 17491-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45582.75018518518</v>
+        <v>45415.50266203703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>6.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2048,14 +2048,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 52965-2025</t>
+          <t>A 23503-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45956</v>
+        <v>45795</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>14.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2105,14 +2105,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 52960-2025</t>
+          <t>A 50864-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45956</v>
+        <v>44867.56143518518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2162,14 +2162,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 52888-2025</t>
+          <t>A 24086-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45957.56943287037</v>
+        <v>45795</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2219,14 +2219,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 28409-2024</t>
+          <t>A 51434-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45477.62280092593</v>
+        <v>45949</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2276,14 +2276,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 57001-2025</t>
+          <t>A 52888-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45977</v>
+        <v>45957.56943287037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2333,14 +2333,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 4780-2022</t>
+          <t>A 52965-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44592.62657407407</v>
+        <v>45956</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2390,14 +2390,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 17492-2024</t>
+          <t>A 52960-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45415.50709490741</v>
+        <v>45956</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>7.7</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2447,14 +2447,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 46587-2024</t>
+          <t>A 57001-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45582.76763888889</v>
+        <v>45977</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2504,14 +2504,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 46588-2024</t>
+          <t>A 59231-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45582.77137731481</v>
+        <v>45637.58472222222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2561,14 +2561,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 28418-2024</t>
+          <t>A 4780-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>44592.62657407407</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2625,7 +2625,7 @@
         <v>45596.59591435185</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 24087-2025</t>
+          <t>A 2980-2026</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45795</v>
+        <v>46038.62965277778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>30.3</v>
+        <v>1.1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -622,289 +622,289 @@
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 2980-2026 artfynd.xlsx", "A 2980-2026")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 2980-2026 karta.png", "A 2980-2026")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 2980-2026 FSC-klagomål.docx", "A 2980-2026")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 2980-2026 FSC-klagomål mail.docx", "A 2980-2026")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 2980-2026 tillsynsbegäran.docx", "A 2980-2026")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 2980-2026 tillsynsbegäran mail.docx", "A 2980-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 24087-2025</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45795</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SOTENÄS</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
           <t>Rödlånke</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 24087-2025 artfynd.xlsx", "A 24087-2025")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 24087-2025 karta.png", "A 24087-2025")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 24087-2025 FSC-klagomål.docx", "A 24087-2025")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 24087-2025 FSC-klagomål mail.docx", "A 24087-2025")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 24087-2025 tillsynsbegäran.docx", "A 24087-2025")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 24087-2025 tillsynsbegäran mail.docx", "A 24087-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>A 24088-2025</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="1" t="n">
         <v>45795</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SOTENÄS</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="C4" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SOTENÄS</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>2.8</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 24088-2025 artfynd.xlsx", "A 24088-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 24088-2025 karta.png", "A 24088-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 24088-2025 FSC-klagomål.docx", "A 24088-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 24088-2025 FSC-klagomål mail.docx", "A 24088-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 24088-2025 tillsynsbegäran.docx", "A 24088-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 24088-2025 tillsynsbegäran mail.docx", "A 24088-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 24036-2025</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>45795</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SOTENÄS</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SOTENÄS</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>37.1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Kopparödla</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 24036-2025 artfynd.xlsx", "A 24036-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 24036-2025 karta.png", "A 24036-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 24036-2025 FSC-klagomål.docx", "A 24036-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 24036-2025 FSC-klagomål mail.docx", "A 24036-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 24036-2025 tillsynsbegäran.docx", "A 24036-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 24036-2025 tillsynsbegäran mail.docx", "A 24036-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 2980-2026</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>46038.62965277778</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SOTENÄS</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/artfynd/A 2980-2026 artfynd.xlsx", "A 2980-2026")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/kartor/A 2980-2026 karta.png", "A 2980-2026")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomål/A 2980-2026 FSC-klagomål.docx", "A 2980-2026")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/klagomålsmail/A 2980-2026 FSC-klagomål mail.docx", "A 2980-2026")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsyn/A 2980-2026 tillsynsbegäran.docx", "A 2980-2026")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1427/tillsynsmail/A 2980-2026 tillsynsbegäran mail.docx", "A 2980-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44307.58013888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44886.4831712963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44320</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44550</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1250,14 +1250,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 46587-2024</t>
+          <t>A 17492-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45582.76763888889</v>
+        <v>45415.50709490741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>7.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1307,14 +1307,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 46588-2024</t>
+          <t>A 28409-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45582.77137731481</v>
+        <v>45477.62280092593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1364,14 +1364,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 17492-2024</t>
+          <t>A 24086-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45415.50709490741</v>
+        <v>45795</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>7.7</v>
+        <v>0.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1421,14 +1421,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 28409-2024</t>
+          <t>A 46587-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45477.62280092593</v>
+        <v>45582.76763888889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1478,14 +1478,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 270-2025</t>
+          <t>A 46588-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45660.48087962963</v>
+        <v>45582.77137731481</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8.9</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1535,14 +1535,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 28418-2024</t>
+          <t>A 270-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>45660.48087962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.2</v>
+        <v>8.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 49633-2024</t>
+          <t>A 28418-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45596.59559027778</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1649,14 +1649,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 46579-2024</t>
+          <t>A 50239-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45582.75018518518</v>
+        <v>44865</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>13.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1706,14 +1706,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 50239-2022</t>
+          <t>A 51434-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44865</v>
+        <v>45949</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>13.2</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1763,14 +1763,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 28416-2024</t>
+          <t>A 24212-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45477.62978009259</v>
+        <v>45076</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.2</v>
+        <v>5.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1820,14 +1820,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 24212-2023</t>
+          <t>A 52888-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45076</v>
+        <v>45957.56943287037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1877,14 +1877,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 4422-2024</t>
+          <t>A 52965-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45327.45375</v>
+        <v>45956</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1934,14 +1934,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 21421-2021</t>
+          <t>A 52960-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44316</v>
+        <v>45956</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1991,14 +1991,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 17491-2024</t>
+          <t>A 4422-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45415.50266203703</v>
+        <v>45327.45375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2048,14 +2048,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 23503-2025</t>
+          <t>A 57001-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45795</v>
+        <v>45977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>14.1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2105,14 +2105,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 50864-2022</t>
+          <t>A 59231-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44867.56143518518</v>
+        <v>45637.58472222222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2162,14 +2162,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 24086-2025</t>
+          <t>A 4780-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45795</v>
+        <v>44592.62657407407</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2219,14 +2219,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 51434-2025</t>
+          <t>A 49634-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45949</v>
+        <v>45596.59591435185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2276,14 +2276,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 52888-2025</t>
+          <t>A 49633-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45957.56943287037</v>
+        <v>45596.59559027778</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2333,14 +2333,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 52965-2025</t>
+          <t>A 46579-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45956</v>
+        <v>45582.75018518518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2390,14 +2390,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 52960-2025</t>
+          <t>A 28416-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45956</v>
+        <v>45477.62978009259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2447,14 +2447,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 57001-2025</t>
+          <t>A 21421-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45977</v>
+        <v>44316</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2504,14 +2504,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 59231-2024</t>
+          <t>A 17491-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45637.58472222222</v>
+        <v>45415.50266203703</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>6.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2561,14 +2561,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 4780-2022</t>
+          <t>A 23503-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44592.62657407407</v>
+        <v>45795</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>14.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2618,14 +2618,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 49634-2024</t>
+          <t>A 50864-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45596.59591435185</v>
+        <v>44867.56143518518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
